--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.9750066666666667</v>
+      </c>
+      <c r="H2">
+        <v>2.92502</v>
+      </c>
+      <c r="I2">
+        <v>0.03314938328005726</v>
+      </c>
+      <c r="J2">
+        <v>0.03314938328005725</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.763545</v>
-      </c>
-      <c r="H2">
-        <v>2.290635</v>
-      </c>
-      <c r="I2">
-        <v>0.02627092156883794</v>
-      </c>
-      <c r="J2">
-        <v>0.02627092156883794</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.1306296666666667</v>
+        <v>0.217066</v>
       </c>
       <c r="N2">
-        <v>0.391889</v>
+        <v>0.6511979999999999</v>
       </c>
       <c r="O2">
-        <v>0.08005521288665671</v>
+        <v>0.06317054032028298</v>
       </c>
       <c r="P2">
-        <v>0.08005521288665669</v>
+        <v>0.06317054032028299</v>
       </c>
       <c r="Q2">
-        <v>0.09974162883500001</v>
+        <v>0.2116407971066666</v>
       </c>
       <c r="R2">
-        <v>0.8976746595149999</v>
+        <v>1.90476717396</v>
       </c>
       <c r="S2">
-        <v>0.002103124218921983</v>
+        <v>0.002094064453085371</v>
       </c>
       <c r="T2">
-        <v>0.002103124218921982</v>
+        <v>0.002094064453085371</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.763545</v>
+        <v>0.9750066666666667</v>
       </c>
       <c r="H3">
-        <v>2.290635</v>
+        <v>2.92502</v>
       </c>
       <c r="I3">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005726</v>
       </c>
       <c r="J3">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005725</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.149081</v>
       </c>
       <c r="O3">
-        <v>0.2347346418986304</v>
+        <v>0.1114685051885465</v>
       </c>
       <c r="P3">
-        <v>0.2347346418986304</v>
+        <v>0.1114685051885465</v>
       </c>
       <c r="Q3">
-        <v>0.292458350715</v>
+        <v>0.3734538785133333</v>
       </c>
       <c r="R3">
-        <v>2.632125156435</v>
+        <v>3.36108490662</v>
       </c>
       <c r="S3">
-        <v>0.006166695366808179</v>
+        <v>0.003695112202150179</v>
       </c>
       <c r="T3">
-        <v>0.006166695366808177</v>
+        <v>0.003695112202150178</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.763545</v>
+        <v>0.9750066666666667</v>
       </c>
       <c r="H4">
-        <v>2.290635</v>
+        <v>2.92502</v>
       </c>
       <c r="I4">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005726</v>
       </c>
       <c r="J4">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005725</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.298871</v>
+        <v>1.344541</v>
       </c>
       <c r="N4">
-        <v>0.896613</v>
+        <v>4.033623</v>
       </c>
       <c r="O4">
-        <v>0.1831603964182305</v>
+        <v>0.3912882784626502</v>
       </c>
       <c r="P4">
-        <v>0.1831603964182305</v>
+        <v>0.3912882784626502</v>
       </c>
       <c r="Q4">
-        <v>0.228201457695</v>
+        <v>1.310936438606667</v>
       </c>
       <c r="R4">
-        <v>2.053813119255</v>
+        <v>11.79842794746</v>
       </c>
       <c r="S4">
-        <v>0.004811792408820599</v>
+        <v>0.01297096511575217</v>
       </c>
       <c r="T4">
-        <v>0.004811792408820598</v>
+        <v>0.01297096511575216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.763545</v>
+        <v>0.9750066666666667</v>
       </c>
       <c r="H5">
-        <v>2.290635</v>
+        <v>2.92502</v>
       </c>
       <c r="I5">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005726</v>
       </c>
       <c r="J5">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005725</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4275226666666667</v>
+        <v>0.3057526666666667</v>
       </c>
       <c r="N5">
-        <v>1.282568</v>
+        <v>0.917258</v>
       </c>
       <c r="O5">
-        <v>0.2620034098472106</v>
+        <v>0.08898013119374158</v>
       </c>
       <c r="P5">
-        <v>0.2620034098472105</v>
+        <v>0.0889801311937416</v>
       </c>
       <c r="Q5">
-        <v>0.32643279452</v>
+        <v>0.2981108883511111</v>
       </c>
       <c r="R5">
-        <v>2.93789515068</v>
+        <v>2.68299799516</v>
       </c>
       <c r="S5">
-        <v>0.006883071030864172</v>
+        <v>0.002949636473251119</v>
       </c>
       <c r="T5">
-        <v>0.00688307103086417</v>
+        <v>0.002949636473251118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.763545</v>
+        <v>0.9750066666666667</v>
       </c>
       <c r="H6">
-        <v>2.290635</v>
+        <v>2.92502</v>
       </c>
       <c r="I6">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005726</v>
       </c>
       <c r="J6">
-        <v>0.02627092156883794</v>
+        <v>0.03314938328005725</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3916943333333333</v>
+        <v>1.185803666666667</v>
       </c>
       <c r="N6">
-        <v>1.175083</v>
+        <v>3.557411</v>
       </c>
       <c r="O6">
-        <v>0.2400463389492719</v>
+        <v>0.3450925448347787</v>
       </c>
       <c r="P6">
-        <v>0.2400463389492719</v>
+        <v>0.3450925448347787</v>
       </c>
       <c r="Q6">
-        <v>0.299076249745</v>
+        <v>1.156166480357778</v>
       </c>
       <c r="R6">
-        <v>2.691686247705</v>
+        <v>10.40549832322</v>
       </c>
       <c r="S6">
-        <v>0.00630623854342301</v>
+        <v>0.01143960503581842</v>
       </c>
       <c r="T6">
-        <v>0.006306238543423008</v>
+        <v>0.01143960503581842</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>80.767201</v>
       </c>
       <c r="I7">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="J7">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1306296666666667</v>
+        <v>0.217066</v>
       </c>
       <c r="N7">
-        <v>0.391889</v>
+        <v>0.6511979999999999</v>
       </c>
       <c r="O7">
-        <v>0.08005521288665671</v>
+        <v>0.06317054032028298</v>
       </c>
       <c r="P7">
-        <v>0.08005521288665669</v>
+        <v>0.06317054032028299</v>
       </c>
       <c r="Q7">
-        <v>3.516864181409889</v>
+        <v>5.843937750755333</v>
       </c>
       <c r="R7">
-        <v>31.651777632689</v>
+        <v>52.59543975679799</v>
       </c>
       <c r="S7">
-        <v>0.07415561908276079</v>
+        <v>0.05782241645845199</v>
       </c>
       <c r="T7">
-        <v>0.07415561908276078</v>
+        <v>0.05782241645845201</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>80.767201</v>
       </c>
       <c r="I8">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="J8">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.149081</v>
       </c>
       <c r="O8">
-        <v>0.2347346418986304</v>
+        <v>0.1114685051885465</v>
       </c>
       <c r="P8">
-        <v>0.2347346418986304</v>
+        <v>0.1114685051885465</v>
       </c>
       <c r="Q8">
         <v>10.31200623247567</v>
@@ -948,10 +948,10 @@
         <v>92.80805609228101</v>
       </c>
       <c r="S8">
-        <v>0.2174360926977737</v>
+        <v>0.1020313946395635</v>
       </c>
       <c r="T8">
-        <v>0.2174360926977737</v>
+        <v>0.1020313946395635</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>80.767201</v>
       </c>
       <c r="I9">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="J9">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.298871</v>
+        <v>1.344541</v>
       </c>
       <c r="N9">
-        <v>0.896613</v>
+        <v>4.033623</v>
       </c>
       <c r="O9">
-        <v>0.1831603964182305</v>
+        <v>0.3912882784626502</v>
       </c>
       <c r="P9">
-        <v>0.1831603964182305</v>
+        <v>0.3912882784626502</v>
       </c>
       <c r="Q9">
-        <v>8.046324710023667</v>
+        <v>36.19827106658034</v>
       </c>
       <c r="R9">
-        <v>72.416922390213</v>
+        <v>325.784439599223</v>
       </c>
       <c r="S9">
-        <v>0.1696625628498156</v>
+        <v>0.3581611567332679</v>
       </c>
       <c r="T9">
-        <v>0.1696625628498156</v>
+        <v>0.3581611567332679</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>80.767201</v>
       </c>
       <c r="I10">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="J10">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4275226666666667</v>
+        <v>0.3057526666666667</v>
       </c>
       <c r="N10">
-        <v>1.282568</v>
+        <v>0.917258</v>
       </c>
       <c r="O10">
-        <v>0.2620034098472106</v>
+        <v>0.08898013119374158</v>
       </c>
       <c r="P10">
-        <v>0.2620034098472105</v>
+        <v>0.0889801311937416</v>
       </c>
       <c r="Q10">
-        <v>11.50993638357422</v>
+        <v>8.231595694984222</v>
       </c>
       <c r="R10">
-        <v>103.589427452168</v>
+        <v>74.084361254858</v>
       </c>
       <c r="S10">
-        <v>0.2426953143766177</v>
+        <v>0.08144692409351191</v>
       </c>
       <c r="T10">
-        <v>0.2426953143766177</v>
+        <v>0.08144692409351192</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>80.767201</v>
       </c>
       <c r="I11">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="J11">
-        <v>0.9263059382248019</v>
+        <v>0.9153383232957121</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3916943333333333</v>
+        <v>1.185803666666667</v>
       </c>
       <c r="N11">
-        <v>1.175083</v>
+        <v>3.557411</v>
       </c>
       <c r="O11">
-        <v>0.2400463389492719</v>
+        <v>0.3450925448347787</v>
       </c>
       <c r="P11">
-        <v>0.2400463389492719</v>
+        <v>0.3450925448347787</v>
       </c>
       <c r="Q11">
-        <v>10.54535165029811</v>
+        <v>31.92468103073455</v>
       </c>
       <c r="R11">
-        <v>94.90816485268299</v>
+        <v>287.322129276611</v>
       </c>
       <c r="S11">
-        <v>0.2223563492178341</v>
+        <v>0.3158764313709167</v>
       </c>
       <c r="T11">
-        <v>0.2223563492178341</v>
+        <v>0.3158764313709167</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.378318666666667</v>
+        <v>1.515106</v>
       </c>
       <c r="H12">
-        <v>4.134956</v>
+        <v>4.545318</v>
       </c>
       <c r="I12">
-        <v>0.04742314020636018</v>
+        <v>0.05151229342423071</v>
       </c>
       <c r="J12">
-        <v>0.04742314020636017</v>
+        <v>0.0515122934242307</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1306296666666667</v>
+        <v>0.217066</v>
       </c>
       <c r="N12">
-        <v>0.391889</v>
+        <v>0.6511979999999999</v>
       </c>
       <c r="O12">
-        <v>0.08005521288665671</v>
+        <v>0.06317054032028298</v>
       </c>
       <c r="P12">
-        <v>0.08005521288665669</v>
+        <v>0.06317054032028299</v>
       </c>
       <c r="Q12">
-        <v>0.1800493079871111</v>
+        <v>0.328877998996</v>
       </c>
       <c r="R12">
-        <v>1.620443771884</v>
+        <v>2.959901990964</v>
       </c>
       <c r="S12">
-        <v>0.003796469584973933</v>
+        <v>0.003254059408745613</v>
       </c>
       <c r="T12">
-        <v>0.003796469584973932</v>
+        <v>0.003254059408745614</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.378318666666667</v>
+        <v>1.515106</v>
       </c>
       <c r="H13">
-        <v>4.134956</v>
+        <v>4.545318</v>
       </c>
       <c r="I13">
-        <v>0.04742314020636018</v>
+        <v>0.05151229342423071</v>
       </c>
       <c r="J13">
-        <v>0.04742314020636017</v>
+        <v>0.0515122934242307</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.149081</v>
       </c>
       <c r="O13">
-        <v>0.2347346418986304</v>
+        <v>0.1114685051885465</v>
       </c>
       <c r="P13">
-        <v>0.2347346418986304</v>
+        <v>0.1114685051885465</v>
       </c>
       <c r="Q13">
-        <v>0.5279332639373333</v>
+        <v>0.5803265058620001</v>
       </c>
       <c r="R13">
-        <v>4.751399375436</v>
+        <v>5.222938552758</v>
       </c>
       <c r="S13">
-        <v>0.0111318538340485</v>
+        <v>0.00574199834683279</v>
       </c>
       <c r="T13">
-        <v>0.0111318538340485</v>
+        <v>0.005741998346832789</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.378318666666667</v>
+        <v>1.515106</v>
       </c>
       <c r="H14">
-        <v>4.134956</v>
+        <v>4.545318</v>
       </c>
       <c r="I14">
-        <v>0.04742314020636018</v>
+        <v>0.05151229342423071</v>
       </c>
       <c r="J14">
-        <v>0.04742314020636017</v>
+        <v>0.0515122934242307</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.298871</v>
+        <v>1.344541</v>
       </c>
       <c r="N14">
-        <v>0.896613</v>
+        <v>4.033623</v>
       </c>
       <c r="O14">
-        <v>0.1831603964182305</v>
+        <v>0.3912882784626502</v>
       </c>
       <c r="P14">
-        <v>0.1831603964182305</v>
+        <v>0.3912882784626502</v>
       </c>
       <c r="Q14">
-        <v>0.4119394782253333</v>
+        <v>2.037122136346</v>
       </c>
       <c r="R14">
-        <v>3.707455304028</v>
+        <v>18.334099227114</v>
       </c>
       <c r="S14">
-        <v>0.008686041159594255</v>
+        <v>0.02015615661363013</v>
       </c>
       <c r="T14">
-        <v>0.008686041159594253</v>
+        <v>0.02015615661363013</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.378318666666667</v>
+        <v>1.515106</v>
       </c>
       <c r="H15">
-        <v>4.134956</v>
+        <v>4.545318</v>
       </c>
       <c r="I15">
-        <v>0.04742314020636018</v>
+        <v>0.05151229342423071</v>
       </c>
       <c r="J15">
-        <v>0.04742314020636017</v>
+        <v>0.0515122934242307</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4275226666666667</v>
+        <v>0.3057526666666667</v>
       </c>
       <c r="N15">
-        <v>1.282568</v>
+        <v>0.917258</v>
       </c>
       <c r="O15">
-        <v>0.2620034098472106</v>
+        <v>0.08898013119374158</v>
       </c>
       <c r="P15">
-        <v>0.2620034098472105</v>
+        <v>0.0889801311937416</v>
       </c>
       <c r="Q15">
-        <v>0.5892624718897778</v>
+        <v>0.4632476997826667</v>
       </c>
       <c r="R15">
-        <v>5.303362247008</v>
+        <v>4.169229298044</v>
       </c>
       <c r="S15">
-        <v>0.01242502443972872</v>
+        <v>0.00458357062697856</v>
       </c>
       <c r="T15">
-        <v>0.01242502443972871</v>
+        <v>0.004583570626978561</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.378318666666667</v>
+        <v>1.515106</v>
       </c>
       <c r="H16">
-        <v>4.134956</v>
+        <v>4.545318</v>
       </c>
       <c r="I16">
-        <v>0.04742314020636018</v>
+        <v>0.05151229342423071</v>
       </c>
       <c r="J16">
-        <v>0.04742314020636017</v>
+        <v>0.0515122934242307</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3916943333333333</v>
+        <v>1.185803666666667</v>
       </c>
       <c r="N16">
-        <v>1.175083</v>
+        <v>3.557411</v>
       </c>
       <c r="O16">
-        <v>0.2400463389492719</v>
+        <v>0.3450925448347787</v>
       </c>
       <c r="P16">
-        <v>0.2400463389492719</v>
+        <v>0.3450925448347787</v>
       </c>
       <c r="Q16">
-        <v>0.5398796112608889</v>
+        <v>1.796618250188667</v>
       </c>
       <c r="R16">
-        <v>4.858916501347999</v>
+        <v>16.169564251698</v>
       </c>
       <c r="S16">
-        <v>0.01138375118801478</v>
+        <v>0.01777650842804361</v>
       </c>
       <c r="T16">
-        <v>0.01138375118801478</v>
+        <v>0.01777650842804361</v>
       </c>
     </row>
   </sheetData>
